--- a/website/problem.xlsx
+++ b/website/problem.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="8820" activeTab="1"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="eslint语法报错" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
   <si>
     <t>eslint语法报错</t>
   </si>
@@ -133,6 +133,33 @@
   </si>
   <si>
     <t>webpack.base.conf.js  注释createLintingRule成空对象</t>
+  </si>
+  <si>
+    <t>动画与一个标签</t>
+  </si>
+  <si>
+    <t>分页总数设0，视图更新问题</t>
+  </si>
+  <si>
+    <t>dom创建与v-if和v-show</t>
+  </si>
+  <si>
+    <t>element table固定表头</t>
+  </si>
+  <si>
+    <t>初始化form表单</t>
+  </si>
+  <si>
+    <t>v-text与v-html   &lt;br&gt;也是标签</t>
+  </si>
+  <si>
+    <t>解决 v-html 元素中标签样式失效</t>
+  </si>
+  <si>
+    <t>/deep/ ul {
+        }
+/deep/ li {
+        }</t>
   </si>
 </sst>
 </file>
@@ -140,12 +167,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,8 +182,74 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -164,80 +257,31 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -249,9 +293,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,61 +303,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -334,19 +354,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,163 +534,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,30 +563,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -578,6 +574,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -608,15 +613,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -625,173 +621,200 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1152,21 +1175,21 @@
   <cols>
     <col min="1" max="1" width="60.6296296296296" style="1" customWidth="1"/>
     <col min="2" max="2" width="80.6296296296296" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="2"/>
+    <col min="3" max="3" width="9" style="3"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1" s="4"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1206,7 +1229,7 @@
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1303,13 +1326,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B5"/>
+  <dimension ref="A2:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="40.7777777777778" style="1" customWidth="1"/>
     <col min="2" max="2" width="120.777777777778" style="1" customWidth="1"/>
@@ -1346,6 +1369,44 @@
       </c>
       <c r="B5" s="1" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" ht="57.6" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
